--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,67 +40,76 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fake</t>
@@ -109,9 +118,6 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -124,21 +130,21 @@
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -154,25 +160,40 @@
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>really</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>netflix</t>
@@ -184,16 +205,16 @@
     <t>watching</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -673,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -723,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,31 +862,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7">
-        <v>0.7543859649122807</v>
-      </c>
-      <c r="L7">
-        <v>43</v>
-      </c>
-      <c r="M7">
-        <v>43</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.6923076923076923</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,16 +965,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -991,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,31 +1062,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.5789473684210527</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>11</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.725</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.5555555555555556</v>
@@ -1123,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>0.5555555555555556</v>
@@ -1173,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6571428571428571</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>0.55</v>
@@ -1223,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.4242424242424243</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6470588235294118</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3958333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6304347826086957</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.3220338983050847</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6170212765957447</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2777777777777778</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.2513661202185792</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="L19">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M19">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5714285714285714</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.2391304347826087</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5652173913043478</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="L21">
         <v>10</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="L21">
-        <v>14</v>
-      </c>
       <c r="M21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1692307692307692</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L22">
         <v>11</v>
@@ -1615,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,10 +1647,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1263157894736842</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L23">
         <v>12</v>
@@ -1665,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1694,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1794871794871795</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.05555555555555555</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>510</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,115 +1744,187 @@
         <v>30</v>
       </c>
       <c r="B25">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.1473684210526316</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>69</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.1267605633802817</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>0.0505050505050505</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>15</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>17</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>0.12</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>0.88</v>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>282</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.04240282685512368</v>
-      </c>
-      <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="M25">
-        <v>12</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26">
-        <v>0.03812316715542522</v>
-      </c>
-      <c r="L26">
-        <v>13</v>
-      </c>
-      <c r="M26">
-        <v>13</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.02409638554216868</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1843,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>648</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.02246543778801843</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1869,33 +1962,163 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1697</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.0204865556978233</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31">
+        <v>0.03812316715542522</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32">
+        <v>0.03162650602409638</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L33">
         <v>16</v>
       </c>
-      <c r="M30">
+      <c r="M33">
         <v>16</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>765</v>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>0.02432778489116517</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35">
+        <v>0.02188940092165899</v>
+      </c>
+      <c r="L35">
+        <v>38</v>
+      </c>
+      <c r="M35">
+        <v>38</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
